--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col5a2-Ddr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.03432641252194</v>
+        <v>6.407607666666666</v>
       </c>
       <c r="H2">
-        <v>5.03432641252194</v>
+        <v>19.222823</v>
       </c>
       <c r="I2">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="J2">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N2">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P2">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q2">
-        <v>2.766537922203703</v>
+        <v>3.963780276507555</v>
       </c>
       <c r="R2">
-        <v>2.766537922203703</v>
+        <v>35.67402248856799</v>
       </c>
       <c r="S2">
-        <v>0.0004320447227859314</v>
+        <v>0.0005842379880054003</v>
       </c>
       <c r="T2">
-        <v>0.0004320447227859314</v>
+        <v>0.0005842379880054003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.03432641252194</v>
+        <v>6.407607666666666</v>
       </c>
       <c r="H3">
-        <v>5.03432641252194</v>
+        <v>19.222823</v>
       </c>
       <c r="I3">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="J3">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N3">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P3">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q3">
-        <v>11.61382057157541</v>
+        <v>14.98497225663533</v>
       </c>
       <c r="R3">
-        <v>11.61382057157541</v>
+        <v>134.864750309718</v>
       </c>
       <c r="S3">
-        <v>0.001813707250878735</v>
+        <v>0.002208697110034344</v>
       </c>
       <c r="T3">
-        <v>0.001813707250878735</v>
+        <v>0.002208697110034344</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.03432641252194</v>
+        <v>6.407607666666666</v>
       </c>
       <c r="H4">
-        <v>5.03432641252194</v>
+        <v>19.222823</v>
       </c>
       <c r="I4">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="J4">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N4">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P4">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q4">
-        <v>0.670964427278685</v>
+        <v>1.059267253807333</v>
       </c>
       <c r="R4">
-        <v>0.670964427278685</v>
+        <v>9.533405284265999</v>
       </c>
       <c r="S4">
-        <v>0.0001047831796037445</v>
+        <v>0.0001561297867069657</v>
       </c>
       <c r="T4">
-        <v>0.0001047831796037445</v>
+        <v>0.0001561297867069657</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.03432641252194</v>
+        <v>6.407607666666666</v>
       </c>
       <c r="H5">
-        <v>5.03432641252194</v>
+        <v>19.222823</v>
       </c>
       <c r="I5">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="J5">
-        <v>0.00831246391386912</v>
+        <v>0.01049006948643881</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N5">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P5">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q5">
-        <v>38.17637650871423</v>
+        <v>51.16217349592056</v>
       </c>
       <c r="R5">
-        <v>38.17637650871423</v>
+        <v>460.459561463285</v>
       </c>
       <c r="S5">
-        <v>0.00596192876060071</v>
+        <v>0.007541004601692096</v>
       </c>
       <c r="T5">
-        <v>0.00596192876060071</v>
+        <v>0.007541004601692096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>571.509136664131</v>
+        <v>572.1502276666666</v>
       </c>
       <c r="H6">
-        <v>571.509136664131</v>
+        <v>1716.450683</v>
       </c>
       <c r="I6">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690507</v>
       </c>
       <c r="J6">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N6">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P6">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q6">
-        <v>314.0642004329565</v>
+        <v>353.9351823024809</v>
       </c>
       <c r="R6">
-        <v>314.0642004329565</v>
+        <v>3185.416640722328</v>
       </c>
       <c r="S6">
-        <v>0.04904678129441918</v>
+        <v>0.05216797207914858</v>
       </c>
       <c r="T6">
-        <v>0.04904678129441918</v>
+        <v>0.05216797207914859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>571.509136664131</v>
+        <v>572.1502276666666</v>
       </c>
       <c r="H7">
-        <v>571.509136664131</v>
+        <v>1716.450683</v>
       </c>
       <c r="I7">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690507</v>
       </c>
       <c r="J7">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690508</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N7">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P7">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q7">
-        <v>1318.429522512464</v>
+        <v>1338.043109726275</v>
       </c>
       <c r="R7">
-        <v>1318.429522512464</v>
+        <v>12042.38798753648</v>
       </c>
       <c r="S7">
-        <v>0.2058965152781823</v>
+        <v>0.1972197144539372</v>
       </c>
       <c r="T7">
-        <v>0.2058965152781823</v>
+        <v>0.1972197144539372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>571.509136664131</v>
+        <v>572.1502276666666</v>
       </c>
       <c r="H8">
-        <v>571.509136664131</v>
+        <v>1716.450683</v>
       </c>
       <c r="I8">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690507</v>
       </c>
       <c r="J8">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N8">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P8">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q8">
-        <v>76.16953473906538</v>
+        <v>94.58444273648732</v>
       </c>
       <c r="R8">
-        <v>76.16953473906538</v>
+        <v>851.259984628386</v>
       </c>
       <c r="S8">
-        <v>0.01189524468721517</v>
+        <v>0.01394119266612482</v>
       </c>
       <c r="T8">
-        <v>0.01189524468721517</v>
+        <v>0.01394119266612483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>571.509136664131</v>
+        <v>572.1502276666666</v>
       </c>
       <c r="H9">
-        <v>571.509136664131</v>
+        <v>1716.450683</v>
       </c>
       <c r="I9">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690507</v>
       </c>
       <c r="J9">
-        <v>0.9436513816725786</v>
+        <v>0.9366827616690508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N9">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O9">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P9">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q9">
-        <v>4333.876310680123</v>
+        <v>4568.389754243553</v>
       </c>
       <c r="R9">
-        <v>4333.876310680123</v>
+        <v>41115.50778819199</v>
       </c>
       <c r="S9">
-        <v>0.676812840412762</v>
+        <v>0.6733538824698402</v>
       </c>
       <c r="T9">
-        <v>0.676812840412762</v>
+        <v>0.6733538824698403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.26407431165962</v>
+        <v>0.356025</v>
       </c>
       <c r="H10">
-        <v>0.26407431165962</v>
+        <v>1.068075</v>
       </c>
       <c r="I10">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="J10">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N10">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O10">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P10">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q10">
-        <v>0.1451180431346324</v>
+        <v>0.2202389638</v>
       </c>
       <c r="R10">
-        <v>0.1451180431346324</v>
+        <v>1.9821506742</v>
       </c>
       <c r="S10">
-        <v>2.266279605789645E-05</v>
+        <v>3.246193283051444E-05</v>
       </c>
       <c r="T10">
-        <v>2.266279605789645E-05</v>
+        <v>3.246193283051444E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.26407431165962</v>
+        <v>0.356025</v>
       </c>
       <c r="H11">
-        <v>0.26407431165962</v>
+        <v>1.068075</v>
       </c>
       <c r="I11">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="J11">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N11">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O11">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P11">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q11">
-        <v>0.6092000045028356</v>
+        <v>0.83260789755</v>
       </c>
       <c r="R11">
-        <v>0.6092000045028356</v>
+        <v>7.493471077949999</v>
       </c>
       <c r="S11">
-        <v>9.513755259026447E-05</v>
+        <v>0.0001227215256468798</v>
       </c>
       <c r="T11">
-        <v>9.513755259026447E-05</v>
+        <v>0.0001227215256468798</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.26407431165962</v>
+        <v>0.356025</v>
       </c>
       <c r="H12">
-        <v>0.26407431165962</v>
+        <v>1.068075</v>
       </c>
       <c r="I12">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="J12">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N12">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O12">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P12">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q12">
-        <v>0.03519526839598577</v>
+        <v>0.05885591685</v>
       </c>
       <c r="R12">
-        <v>0.03519526839598577</v>
+        <v>0.52970325165</v>
       </c>
       <c r="S12">
-        <v>5.496375038086501E-06</v>
+        <v>8.675017292571564E-06</v>
       </c>
       <c r="T12">
-        <v>5.496375038086501E-06</v>
+        <v>8.675017292571564E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.26407431165962</v>
+        <v>0.356025</v>
       </c>
       <c r="H13">
-        <v>0.26407431165962</v>
+        <v>1.068075</v>
       </c>
       <c r="I13">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="J13">
-        <v>0.0004360281806103195</v>
+        <v>0.0005828582496300428</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N13">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O13">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P13">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q13">
-        <v>2.002532120905313</v>
+        <v>2.842716621625</v>
       </c>
       <c r="R13">
-        <v>2.002532120905313</v>
+        <v>25.584449594625</v>
       </c>
       <c r="S13">
-        <v>0.0003127314569240722</v>
+        <v>0.000418999773860077</v>
       </c>
       <c r="T13">
-        <v>0.0003127314569240722</v>
+        <v>0.000418999773860077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.8283444255384</v>
+        <v>31.91218566666667</v>
       </c>
       <c r="H14">
-        <v>28.8283444255384</v>
+        <v>95.736557</v>
       </c>
       <c r="I14">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488034</v>
       </c>
       <c r="J14">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488035</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.549534872296413</v>
+        <v>0.6186053333333333</v>
       </c>
       <c r="N14">
-        <v>0.549534872296413</v>
+        <v>1.855816</v>
       </c>
       <c r="O14">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="P14">
-        <v>0.05197553063238886</v>
+        <v>0.0556943868446899</v>
       </c>
       <c r="Q14">
-        <v>15.84218057240525</v>
+        <v>19.74104825172356</v>
       </c>
       <c r="R14">
-        <v>15.84218057240525</v>
+        <v>177.669434265512</v>
       </c>
       <c r="S14">
-        <v>0.002474041819125849</v>
+        <v>0.002909714844705397</v>
       </c>
       <c r="T14">
-        <v>0.002474041819125849</v>
+        <v>0.002909714844705397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.8283444255384</v>
+        <v>31.91218566666667</v>
       </c>
       <c r="H15">
-        <v>28.8283444255384</v>
+        <v>95.736557</v>
       </c>
       <c r="I15">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488034</v>
       </c>
       <c r="J15">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488035</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.30692641277455</v>
+        <v>2.338622</v>
       </c>
       <c r="N15">
-        <v>2.30692641277455</v>
+        <v>7.015866</v>
       </c>
       <c r="O15">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="P15">
-        <v>0.2181912931799455</v>
+        <v>0.2105512373287584</v>
       </c>
       <c r="Q15">
-        <v>66.50486919183649</v>
+        <v>74.63053946815134</v>
       </c>
       <c r="R15">
-        <v>66.50486919183649</v>
+        <v>671.674855213362</v>
       </c>
       <c r="S15">
-        <v>0.01038593309829425</v>
+        <v>0.01100010423914002</v>
       </c>
       <c r="T15">
-        <v>0.01038593309829425</v>
+        <v>0.01100010423914002</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.8283444255384</v>
+        <v>31.91218566666667</v>
       </c>
       <c r="H16">
-        <v>28.8283444255384</v>
+        <v>95.736557</v>
       </c>
       <c r="I16">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488034</v>
       </c>
       <c r="J16">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488035</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.133277895054597</v>
+        <v>0.165314</v>
       </c>
       <c r="N16">
-        <v>0.133277895054597</v>
+        <v>0.495942</v>
       </c>
       <c r="O16">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794147</v>
       </c>
       <c r="P16">
-        <v>0.01260555001374702</v>
+        <v>0.01488357983794148</v>
       </c>
       <c r="Q16">
-        <v>3.842181062944683</v>
+        <v>5.275531061299334</v>
       </c>
       <c r="R16">
-        <v>3.842181062944683</v>
+        <v>47.479779551694</v>
       </c>
       <c r="S16">
-        <v>0.0006000257718900208</v>
+        <v>0.0007775823678171132</v>
       </c>
       <c r="T16">
-        <v>0.0006000257718900208</v>
+        <v>0.0007775823678171134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.8283444255384</v>
+        <v>31.91218566666667</v>
       </c>
       <c r="H17">
-        <v>28.8283444255384</v>
+        <v>95.736557</v>
       </c>
       <c r="I17">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488034</v>
       </c>
       <c r="J17">
-        <v>0.04760012623294192</v>
+        <v>0.05224431059488035</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.58321439264599</v>
+        <v>7.984598333333333</v>
       </c>
       <c r="N17">
-        <v>7.58321439264599</v>
+        <v>23.953795</v>
       </c>
       <c r="O17">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="P17">
-        <v>0.7172276261739187</v>
+        <v>0.7188707959886103</v>
       </c>
       <c r="Q17">
-        <v>218.6115163638986</v>
+        <v>254.8059844870906</v>
       </c>
       <c r="R17">
-        <v>218.6115163638986</v>
+        <v>2293.253860383815</v>
       </c>
       <c r="S17">
-        <v>0.03414012554363181</v>
+        <v>0.03755690914321781</v>
       </c>
       <c r="T17">
-        <v>0.03414012554363181</v>
+        <v>0.03755690914321782</v>
       </c>
     </row>
   </sheetData>
